--- a/final_data_pipeline/output/311411longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311411longform_elec_options.xlsx
@@ -615,7 +615,7 @@
         <v>48</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -944,7 +944,7 @@
         <v>48</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -991,7 +991,7 @@
         <v>49</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L10">
         <v>8000</v>
@@ -1006,10 +1006,10 @@
         <v>5205.193162587363</v>
       </c>
       <c r="R10">
-        <v>1.25875</v>
+        <v>1.204711500590784</v>
       </c>
       <c r="S10">
-        <v>1.318088235294118</v>
+        <v>1.258324667221298</v>
       </c>
       <c r="T10">
         <v>0.6506491453234203</v>
@@ -1044,7 +1044,7 @@
         <v>48</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L11">
         <v>8000</v>
@@ -1091,7 +1091,7 @@
         <v>48</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="L12">
         <v>8000</v>
@@ -1185,7 +1185,7 @@
         <v>48</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L14">
         <v>8000</v>
@@ -1373,7 +1373,7 @@
         <v>48</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1420,7 +1420,7 @@
         <v>49</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L19">
         <v>8000</v>
@@ -1435,10 +1435,10 @@
         <v>466319.3666512911</v>
       </c>
       <c r="R19">
-        <v>1.25875</v>
+        <v>1.281341554412284</v>
       </c>
       <c r="S19">
-        <v>1.318088235294118</v>
+        <v>1.343162802314449</v>
       </c>
       <c r="T19">
         <v>58.28992083141139</v>
@@ -1473,7 +1473,7 @@
         <v>48</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L20">
         <v>8000</v>
